--- a/sent_optimized_schedules/batt1_2024-12-18.xlsx
+++ b/sent_optimized_schedules/batt1_2024-12-18.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D11:CM11"/>
+  <dimension ref="D11:CU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,16 +471,16 @@
         <v>25</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -519,52 +519,52 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -579,28 +579,28 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -627,28 +627,28 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BY11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="CB11" t="n">
         <v>0</v>
@@ -684,6 +684,30 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" t="n">
         <v>0</v>
       </c>
     </row>
